--- a/config/tarifas.xlsx
+++ b/config/tarifas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agonzalezp\Desktop\guardias_mir_mvp_gui_day_hour\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agonzalezp\Desktop\calculoguardias\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9D81A-B634-406F-B1AC-765B4AE03060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0D765-8C7B-408D-A07B-1D2AB224C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,36 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>grado</t>
   </si>
   <si>
-    <t>tipo_guardia</t>
-  </si>
-  <si>
-    <t>eur_hora_base</t>
-  </si>
-  <si>
-    <t>mult_festivo</t>
-  </si>
-  <si>
-    <t>mult_festivo_especial</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>17h</t>
-  </si>
-  <si>
-    <t>24h</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>eur_hora_normal</t>
+  </si>
+  <si>
+    <t>eur_hora_festivo</t>
+  </si>
+  <si>
+    <t>eur_hora_especial</t>
   </si>
 </sst>
 </file>
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,60 +468,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/config/tarifas.xlsx
+++ b/config/tarifas.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agonzalezp\Desktop\calculoguardias\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0D765-8C7B-408D-A07B-1D2AB224C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370762E-8E7A-4351-B666-9A37A53FE42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tarifas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -451,7 +464,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,20 +495,56 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>13.13</v>
+      </c>
+      <c r="C2">
+        <v>14.73</v>
+      </c>
+      <c r="D2">
+        <v>26.26</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>14.75</v>
+      </c>
+      <c r="C3">
+        <v>16.52</v>
+      </c>
+      <c r="D3">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>17.32</v>
+      </c>
+      <c r="C4">
+        <v>19.39</v>
+      </c>
+      <c r="D4">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17.32</v>
+      </c>
+      <c r="C5">
+        <v>19.39</v>
+      </c>
+      <c r="D5">
+        <v>34.64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
